--- a/final-project/virtual-cards/test-data-virtual-cards.xlsx
+++ b/final-project/virtual-cards/test-data-virtual-cards.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke test" sheetId="1" r:id="rId1"/>
@@ -981,7 +981,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1067,12 +1067,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1081,9 +1092,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1102,9 +1110,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1147,53 +1152,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1226,23 +1189,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1253,23 +1255,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1589,469 +1621,474 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="9"/>
-    <col min="2" max="2" width="11.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="59" style="9" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="64.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="8.88671875" style="8"/>
+    <col min="2" max="2" width="11.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="59" style="8" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="64.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="20" t="s">
+      <c r="E3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="21" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="22" t="s">
+      <c r="E5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="19" t="s">
+      <c r="E7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="19" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="19" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="E9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="E10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="23" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="23" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="23" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="16" t="s">
+      <c r="E12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="29" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="23" t="s">
+      <c r="E14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="23" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="E15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="23" t="s">
+      <c r="A16" s="47"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="23" t="s">
+      <c r="E17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="20" t="s">
+      <c r="E18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H18" s="20"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="19" t="s">
+      <c r="A19" s="47"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="20" t="s">
+      <c r="E19" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="20"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="19" t="s">
+      <c r="A20" s="47"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="20" t="s">
+      <c r="E20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="20"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="20"/>
+      <c r="H21" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:A21"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2062,7 +2099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
@@ -2076,386 +2113,386 @@
     <col min="5" max="5" width="40.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="17" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="43" t="s">
+      <c r="D3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="44" t="s">
+      <c r="D4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="17" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="44" t="s">
+      <c r="D5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="17" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="17" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="17" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="17" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="45" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="17" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="17" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="44" t="s">
+      <c r="D12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="17" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="44" t="s">
+      <c r="D13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="17" t="s">
+      <c r="A14" s="48"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="44" t="s">
+      <c r="D14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="17" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="44" t="s">
+      <c r="D15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="17" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="17"/>
+      <c r="D18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="13" t="s">
+      <c r="A19" s="48"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="17" t="s">
+      <c r="A20" s="48"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="47">
+      <c r="A21" s="48"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="31">
         <v>12345678</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="48"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="48"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="17" t="s">
+      <c r="D23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="13" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="17" t="s">
+      <c r="D24" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="48"/>
+      <c r="D26" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="13" t="s">
+      <c r="A27" s="48"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="48"/>
+      <c r="D27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="49" t="s">
+      <c r="D29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="33" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -2463,54 +2500,54 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="49" t="s">
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="49" t="s">
+      <c r="D31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="33" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="41"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="40" t="s">
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="49" t="s">
+      <c r="D32" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="33" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="40" t="s">
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D33" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="49" t="s">
+      <c r="D33" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="33" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="41"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="49" t="s">
+      <c r="A34" s="61"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="D34" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="49" t="s">
+      <c r="D34" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="33" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2522,71 +2559,71 @@
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36" s="34">
         <v>2850912080104</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="10" t="s">
+      <c r="D36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="38"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="50">
+      <c r="A37" s="48"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="34">
         <v>285091208010</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="10" t="s">
+      <c r="D37" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="38"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="50">
+      <c r="A38" s="48"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="34">
         <v>2850912080104</v>
       </c>
-      <c r="D38" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="10" t="s">
+      <c r="D38" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="38"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="50" t="s">
+      <c r="A39" s="48"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="10" t="s">
+      <c r="D39" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="38"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="51">
+      <c r="A40" s="48"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="35">
         <v>1234561235871</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="14" t="s">
+      <c r="D40" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2598,84 +2635,84 @@
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="14" t="s">
+      <c r="D42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="10" t="s">
+      <c r="A43" s="48"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="14" t="s">
+      <c r="D43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="52">
+      <c r="A44" s="48"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="36">
         <v>368337655</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="10" t="s">
+      <c r="D44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="52">
+      <c r="A45" s="48"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="36">
         <v>74158796</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="10" t="s">
+      <c r="D45" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="52">
+      <c r="A46" s="48"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="36">
         <v>7415879653</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="10" t="s">
+      <c r="D46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="38"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="10" t="s">
+      <c r="A47" s="48"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="9" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2687,506 +2724,506 @@
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="C49" s="53" t="s">
+      <c r="C49" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="54"/>
+      <c r="D49" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="38"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="32"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="53" t="s">
+      <c r="A50" s="53"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="54"/>
+      <c r="D50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="32"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="53" t="s">
+      <c r="A51" s="53"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="D51" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="54"/>
+      <c r="D51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="38"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="32"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="53" t="s">
+      <c r="A52" s="53"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="54"/>
+      <c r="D52" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="38"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="32"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="53" t="s">
+      <c r="A53" s="53"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="37" t="s">
         <v>176</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="54"/>
+      <c r="D53" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="38"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="32"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="53" t="s">
+      <c r="A54" s="53"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="54"/>
+      <c r="D54" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="38"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="32"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="53" t="s">
+      <c r="A55" s="53"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="D55" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="54"/>
+      <c r="D55" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="32"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="53" t="s">
+      <c r="A56" s="53"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="D56" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="54"/>
+      <c r="D56" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="38"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="32"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="53" t="s">
+      <c r="A57" s="53"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="54"/>
+      <c r="D57" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="38"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="32"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="53" t="s">
+      <c r="A58" s="53"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="D58" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="54"/>
+      <c r="D58" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="38"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="53" t="s">
+      <c r="A59" s="53"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="D59" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="54"/>
+      <c r="D59" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="38"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="32"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="53" t="s">
+      <c r="A60" s="53"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="D60" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="54"/>
+      <c r="D60" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="32"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="53" t="s">
+      <c r="A61" s="53"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="D61" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="54"/>
+      <c r="D61" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="38"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="32"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="53" t="s">
+      <c r="A62" s="53"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="D62" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="54"/>
+      <c r="D62" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="38"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="32"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="53" t="s">
+      <c r="A63" s="53"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="D63" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="54"/>
+      <c r="D63" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="38"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="32"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="53" t="s">
+      <c r="A64" s="53"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="D64" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="54"/>
+      <c r="D64" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="38"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="32"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="53" t="s">
+      <c r="A65" s="53"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="D65" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E65" s="54" t="s">
+      <c r="D65" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="38" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="32"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="53" t="s">
+      <c r="A66" s="53"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="D66" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="54"/>
+      <c r="D66" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="38"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="32"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="53" t="s">
+      <c r="A67" s="53"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="D67" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="54"/>
+      <c r="D67" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="38"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="32"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="53" t="s">
+      <c r="A68" s="53"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="D68" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="54"/>
+      <c r="D68" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="38"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="32"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="53" t="s">
+      <c r="A69" s="53"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="D69" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="54"/>
+      <c r="D69" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="38"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="32"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="53" t="s">
+      <c r="A70" s="53"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="D70" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E70" s="54" t="s">
+      <c r="D70" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="38" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="32"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="53" t="s">
+      <c r="A71" s="53"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="D71" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="E71" s="54" t="s">
+      <c r="D71" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="38" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="32"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="53" t="s">
+      <c r="A72" s="53"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="D72" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="54"/>
+      <c r="D72" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="38"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="32"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="53" t="s">
+      <c r="A73" s="53"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="D73" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="54"/>
+      <c r="D73" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="38"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="32"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="53" t="s">
+      <c r="A74" s="53"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="D74" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="54"/>
+      <c r="D74" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="38"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="32"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="53" t="s">
+      <c r="A75" s="53"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="D75" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="54"/>
+      <c r="D75" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="38"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="55"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="56"/>
-      <c r="C76" s="57" t="s">
+      <c r="C76" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="D76" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="59"/>
+      <c r="D76" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="41"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="61"/>
-      <c r="B77" s="62"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="63"/>
+      <c r="A77" s="58"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="59"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="60"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="B78" s="60" t="s">
+      <c r="B78" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D78" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="10"/>
+      <c r="D78" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="9"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="11"/>
-      <c r="B79" s="10" t="s">
+      <c r="A79" s="57"/>
+      <c r="B79" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D79" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="10"/>
+      <c r="D79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="9"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="11"/>
-      <c r="B80" s="10" t="s">
+      <c r="A80" s="57"/>
+      <c r="B80" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D80" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="10"/>
+      <c r="D80" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="9"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="11"/>
-      <c r="B81" s="10" t="s">
+      <c r="A81" s="57"/>
+      <c r="B81" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D81" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="10"/>
+      <c r="D81" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="9"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="11"/>
-      <c r="B82" s="10" t="s">
+      <c r="A82" s="57"/>
+      <c r="B82" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D82" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="10"/>
+      <c r="D82" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="9"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="11"/>
-      <c r="B83" s="10" t="s">
+      <c r="A83" s="57"/>
+      <c r="B83" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D83" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" s="10"/>
+      <c r="D83" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="9"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="11"/>
-      <c r="B84" s="10" t="s">
+      <c r="A84" s="57"/>
+      <c r="B84" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D84" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" s="10"/>
+      <c r="D84" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="9"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="11"/>
-      <c r="B85" s="10" t="s">
+      <c r="A85" s="57"/>
+      <c r="B85" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D85" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="10"/>
+      <c r="D85" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="9"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="11"/>
-      <c r="B86" s="10" t="s">
+      <c r="A86" s="57"/>
+      <c r="B86" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="D86" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" s="10"/>
+      <c r="D86" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="9"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="11"/>
-      <c r="B87" s="10" t="s">
+      <c r="A87" s="57"/>
+      <c r="B87" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D87" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E87" s="10" t="s">
+      <c r="D87" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" s="9" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="11"/>
-      <c r="B88" s="10" t="s">
+      <c r="A88" s="57"/>
+      <c r="B88" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D88" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E88" s="10" t="s">
+      <c r="D88" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" s="9" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="11"/>
-      <c r="B89" s="10" t="s">
+      <c r="A89" s="57"/>
+      <c r="B89" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="D89" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E89" s="10" t="s">
+      <c r="D89" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" s="9" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="11"/>
-      <c r="B90" s="10" t="s">
+      <c r="A90" s="57"/>
+      <c r="B90" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D90" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E90" s="10" t="s">
+      <c r="D90" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" s="9" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3198,265 +3235,277 @@
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D92" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92" s="5"/>
+      <c r="D92" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="38"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="10" t="s">
+      <c r="A93" s="48"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="D93" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93" s="5"/>
+      <c r="D93" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="38"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="10" t="s">
+      <c r="A94" s="48"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D94" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94" s="5"/>
+      <c r="D94" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="4"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="38"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="10" t="s">
+      <c r="A95" s="48"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="D95" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" s="5"/>
+      <c r="D95" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="4"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="38"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="10" t="s">
+      <c r="A96" s="48"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="D96" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" s="5"/>
+      <c r="D96" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="38"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="10" t="s">
+      <c r="A97" s="48"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D97" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97" s="5"/>
+      <c r="D97" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="38"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="10" t="s">
+      <c r="A98" s="48"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D98" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="5"/>
+      <c r="D98" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="38"/>
-      <c r="B99" s="31"/>
-      <c r="C99" s="10" t="s">
+      <c r="A99" s="48"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="D99" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" s="5"/>
+      <c r="D99" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="38"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="10" t="s">
+      <c r="A100" s="48"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D100" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="5"/>
+      <c r="D100" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="38"/>
-      <c r="B101" s="31"/>
-      <c r="C101" s="10" t="s">
+      <c r="A101" s="48"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D101" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" s="5"/>
+      <c r="D101" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="38"/>
-      <c r="B102" s="31"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="5"/>
+      <c r="A102" s="48"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="64"/>
-      <c r="B103" s="65"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="66"/>
+      <c r="A103" s="43"/>
+      <c r="B103" s="44"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="44"/>
+      <c r="E103" s="45"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="38" t="s">
+      <c r="A104" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C104" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="D104" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" s="5"/>
+      <c r="D104" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="4"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="38"/>
-      <c r="B105" s="10" t="s">
+      <c r="A105" s="48"/>
+      <c r="B105" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="D105" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="5"/>
+      <c r="D105" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="4"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="67"/>
-      <c r="B106" s="68"/>
-      <c r="C106" s="68"/>
-      <c r="D106" s="68"/>
-      <c r="E106" s="69"/>
+      <c r="A106" s="49"/>
+      <c r="B106" s="50"/>
+      <c r="C106" s="50"/>
+      <c r="D106" s="50"/>
+      <c r="E106" s="51"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="38" t="s">
+      <c r="A107" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="B107" s="36" t="s">
+      <c r="B107" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" s="5" t="s">
+      <c r="D107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="38"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="10" t="s">
+      <c r="A108" s="48"/>
+      <c r="B108" s="52"/>
+      <c r="C108" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="D108" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" s="10" t="s">
+      <c r="D108" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="9" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="38"/>
-      <c r="B109" s="36"/>
-      <c r="C109" s="10" t="s">
+      <c r="A109" s="48"/>
+      <c r="B109" s="52"/>
+      <c r="C109" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D109" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" s="10" t="s">
+      <c r="D109" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="9" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="38"/>
-      <c r="B110" s="36"/>
-      <c r="C110" s="10" t="s">
+      <c r="A110" s="48"/>
+      <c r="B110" s="52"/>
+      <c r="C110" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="D110" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="10" t="s">
+      <c r="D110" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="9" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="38"/>
-      <c r="B111" s="36"/>
-      <c r="C111" s="10" t="s">
+      <c r="A111" s="48"/>
+      <c r="B111" s="52"/>
+      <c r="C111" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="D111" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="10" t="s">
+      <c r="D111" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="9" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="38"/>
-      <c r="B112" s="36"/>
-      <c r="C112" s="52">
+      <c r="A112" s="48"/>
+      <c r="B112" s="52"/>
+      <c r="C112" s="36">
         <v>1</v>
       </c>
-      <c r="D112" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" s="10" t="s">
+      <c r="D112" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" s="9" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="38"/>
-      <c r="B113" s="36"/>
-      <c r="C113" s="10" t="s">
+      <c r="A113" s="48"/>
+      <c r="B113" s="52"/>
+      <c r="C113" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D113" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E113" s="10" t="s">
+      <c r="D113" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E113" s="9" t="s">
         <v>249</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B42:B47"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="A106:E106"/>
     <mergeCell ref="A107:A113"/>
@@ -3467,18 +3516,6 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A92:A102"/>
     <mergeCell ref="B92:B102"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1" display="http://corinaradu.com/"/>

--- a/final-project/virtual-cards/test-data-virtual-cards.xlsx
+++ b/final-project/virtual-cards/test-data-virtual-cards.xlsx
@@ -74,11 +74,6 @@
  Iphone5</t>
   </si>
   <si>
-    <t>Samsung Galaxy A5
-Lg G2 Mini
-iPhone 5</t>
-  </si>
-  <si>
     <t>valid</t>
   </si>
   <si>
@@ -95,17 +90,10 @@
     <t>Verify that the user is able to receive/reject voice calls/sms while the app is running</t>
   </si>
   <si>
-    <t>Samsung Galaxy A5 - on wich the app runs LG G2 Mini - caller</t>
-  </si>
-  <si>
     <t>The application is minimized whenever there is an incoming phone call.</t>
   </si>
   <si>
     <t>The application is minimized or suspended on the event of a call and then whenever the call stops the application is resumed</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A5 - on wich the app runs
-LG G2 Mini - caller</t>
   </si>
   <si>
     <t>Check the main menu, style, tabs, links, exit application</t>
@@ -123,11 +111,6 @@
     <t>Check if the user can register with valid credentials</t>
   </si>
   <si>
-    <t>Surname and first name: Corina Radu
- Email: corinaradu12@gmail.com 
-Password: Pass1234 Confirm Password: Pass1234</t>
-  </si>
-  <si>
     <t>The user should be able to create new account without encountering any errors</t>
   </si>
   <si>
@@ -149,12 +132,6 @@
 passwords don't match</t>
   </si>
   <si>
-    <t>Surname and first name: Ana
-Email: corina..radu@gmail.com
-Password: Pass12345
-Confirm Password: Pass1234</t>
-  </si>
-  <si>
     <t>User should not be able to register with invalid credentials</t>
   </si>
   <si>
@@ -167,17 +144,10 @@
     <t>Check if the user can log in with valid credentials</t>
   </si>
   <si>
-    <t>Email: corinaradu12@gmail.com
-Password: Pass1234</t>
-  </si>
-  <si>
     <t>A registered user is allowed to login with username and password without encountering any errors</t>
   </si>
   <si>
     <t>Check the login functionality by leaving the password field empty</t>
-  </si>
-  <si>
-    <t>Email: corinaradu12@gmail.com</t>
   </si>
   <si>
     <t>An error message should appear ("Invalid password") The user is not logged in</t>
@@ -196,10 +166,6 @@
     <t>missing "@" from email address</t>
   </si>
   <si>
-    <t>corinaradu12atgmail.com
-Password: Pass12345</t>
-  </si>
-  <si>
     <t>missing "@" from email address
 wrong password</t>
   </si>
@@ -235,20 +201,6 @@
   </si>
   <si>
     <t>Add virtual card by filling in the form with valid data</t>
-  </si>
-  <si>
-    <t>Profi
-DM
-Name: Corina 
-Last Name: Radu
-CNP: 2850912080104
-Street: Lunga
-Number:3
-City: Brasov
-District: Brasov
-Phone:0741587192
-Email: corinaradu12@gmail.com
-Check agreement</t>
   </si>
   <si>
     <t>The new card is added to the list
@@ -270,10 +222,6 @@
   </si>
   <si>
     <t>Check if the user can remove the cards</t>
-  </si>
-  <si>
-    <t>Sensiblue
- DM</t>
   </si>
   <si>
     <t>User should have the possibility to delete a previously saved card</t>
@@ -842,13 +790,613 @@
   </si>
   <si>
     <t>card's name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Samsung Galaxy A5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lg G2 Mini</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iPhone 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Samsung Galaxy A5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - on wich the app runs 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LG G2 Mini</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - caller</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Samsung Galaxy A5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - on wich the app runs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">LG G2 Mini </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- caller</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Surname and first name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Corina Radu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">corinaradu12@gmail.com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Password: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pass1234 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Confirm Password:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pass1234</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Surname and first name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>corina..radu@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Password: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pass12345</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Confirm Password: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pass1234</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>corinaradu12@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Password: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pass1234</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>corinaradu12@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>corinaradu12atgmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Password:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pass12345</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Profi
+DM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Corina </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Last Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+CNP: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2850912080104</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Street: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lunga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Number: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+City: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brasov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+District: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brasov</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Phone: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0741587192</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="8" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>corinaradu12@gmail.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Check agreement</t>
+    </r>
+  </si>
+  <si>
+    <t>Sensiblue
+DM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,6 +1498,13 @@
       <u/>
       <sz val="9"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="8" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1083,7 +1638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1210,15 +1765,66 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1231,21 +1837,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1255,53 +1852,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1622,8 +2183,8 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1631,7 +2192,7 @@
     <col min="1" max="1" width="8.88671875" style="8"/>
     <col min="2" max="2" width="11.33203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="59" style="8" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" style="8" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" style="8" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" style="8" customWidth="1"/>
     <col min="7" max="7" width="64.88671875" style="8" bestFit="1" customWidth="1"/>
@@ -1663,19 +2224,19 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -1685,398 +2246,398 @@
         <v>8</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="E3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="H3" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="D4" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="17" t="s">
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="G5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="H5" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="48"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="D6" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="19" t="s">
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="69" x14ac:dyDescent="0.3">
+      <c r="A7" s="48"/>
+      <c r="B7" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:8" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
-      <c r="B7" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" s="17" t="s">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="48"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A9" s="48"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="17" t="s">
+      <c r="F9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="17" t="s">
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="48"/>
+      <c r="B10" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="17" t="s">
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="48"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
-      <c r="B10" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="D11" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A12" s="48"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="48"/>
+      <c r="B13" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="69" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="21" t="s">
+      <c r="D13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="48"/>
+      <c r="B14" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="14" t="s">
+      <c r="D14" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="E14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="76" t="s">
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="48"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="48"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="73" t="s">
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="48"/>
+      <c r="B17" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="48"/>
+      <c r="B18" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="48"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
-      <c r="B17" s="23" t="s">
+      <c r="E19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="48"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D20" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="21" t="s">
+      <c r="E20" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="48"/>
+      <c r="B21" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
-      <c r="B18" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="18" t="s">
+      <c r="D21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
-      <c r="B21" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>78</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -2100,8 +2661,8 @@
   <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2115,218 +2676,218 @@
   <sheetData>
     <row r="1" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="64" t="s">
+      <c r="A2" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="15" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="15" t="s">
+      <c r="D8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="27" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="15" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="15" t="s">
+      <c r="D9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="28" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="48"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="15" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="28" t="s">
+      <c r="D11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="48"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="15" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="15" t="s">
+      <c r="D12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="15" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="15" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="15" t="s">
+      <c r="D13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="15" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="15" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="15" t="s">
+      <c r="D14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="15" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="15" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="D15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="28" t="s">
+      <c r="D16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2337,96 +2898,96 @@
       <c r="E17" s="30"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="65" t="s">
-        <v>117</v>
+      <c r="A18" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>107</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="65"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="15" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="31">
         <v>12345678</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="48"/>
-      <c r="B22" s="65"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="48"/>
-      <c r="B23" s="65"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="11" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="65"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="11" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2437,28 +2998,28 @@
       <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="B26" s="66" t="s">
-        <v>131</v>
+      <c r="A26" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>121</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-      <c r="B27" s="66"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="11" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E27" s="32"/>
     </row>
@@ -2470,85 +3031,85 @@
       <c r="E28" s="30"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="62" t="s">
+      <c r="D29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="62"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="62"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="61"/>
-      <c r="B33" s="62"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="63"/>
       <c r="C33" s="26" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
-      <c r="B34" s="62"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="63"/>
       <c r="C34" s="33" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2559,72 +3120,72 @@
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="63" t="s">
-        <v>150</v>
+      <c r="A36" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>140</v>
       </c>
       <c r="C36" s="34">
         <v>2850912080104</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="48"/>
-      <c r="B37" s="63"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="34">
         <v>285091208010</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="48"/>
-      <c r="B38" s="63"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="34">
         <v>2850912080104</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="48"/>
-      <c r="B39" s="63"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="34" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="48"/>
-      <c r="B40" s="63"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="35">
         <v>1234561235871</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2635,85 +3196,85 @@
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="B42" s="63" t="s">
-        <v>156</v>
+      <c r="A42" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="65" t="s">
+        <v>146</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="48"/>
-      <c r="B43" s="63"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="65"/>
       <c r="C43" s="9" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="48"/>
-      <c r="B44" s="63"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="65"/>
       <c r="C44" s="36">
         <v>368337655</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="48"/>
-      <c r="B45" s="63"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="36">
         <v>74158796</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="48"/>
-      <c r="B46" s="63"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="36">
         <v>7415879653</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="48"/>
-      <c r="B47" s="63"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="65"/>
       <c r="C47" s="9" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -2724,507 +3285,507 @@
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="53" t="s">
+      <c r="A49" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="38"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="64"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="38"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="64"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="38"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="64"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="38"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="64"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="38"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="64"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="D54" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="38"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="64"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="D55" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="38"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="64"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="38"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="64"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="38"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="64"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="38"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="64"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="38"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="64"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="38"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="53"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="37" t="s">
+      <c r="D60" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="38"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="64"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="D50" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="38"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="53"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="37" t="s">
+      <c r="D61" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="38"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="64"/>
+      <c r="B62" s="70"/>
+      <c r="C62" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="D51" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="38"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="53"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="37" t="s">
+      <c r="D62" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="38"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="64"/>
+      <c r="B63" s="70"/>
+      <c r="C63" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="38"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="64"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="38"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="64"/>
+      <c r="B65" s="70"/>
+      <c r="C65" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="64"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="38"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="64"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="38"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="64"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="38"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="64"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="38"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="64"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="64"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" s="38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="64"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="38"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="64"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="38"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="64"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="38"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="64"/>
+      <c r="B75" s="70"/>
+      <c r="C75" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="38"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="75"/>
+      <c r="B76" s="71"/>
+      <c r="C76" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="41"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="72"/>
+      <c r="B77" s="73"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="74"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="9"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="64"/>
+      <c r="B79" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" s="9"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="64"/>
+      <c r="B80" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="9"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="64"/>
+      <c r="B81" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="9"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="64"/>
+      <c r="B82" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="9"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="64"/>
+      <c r="B83" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="9"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="64"/>
+      <c r="B84" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="38"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="53"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="38"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="53"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="38"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="53"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="38"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="53"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="38"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="53"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="38"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="53"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="38"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="53"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="38"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="53"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="38"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="53"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="38"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="53"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="38"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="53"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="38"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="53"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="38"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="53"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="D65" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E65" s="38" t="s">
+      <c r="D84" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="9"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="64"/>
+      <c r="B85" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="9"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="64"/>
+      <c r="B86" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="53"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="38"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="53"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="38"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="53"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="38"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="53"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="38"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="53"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="D70" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E70" s="38" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="53"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="D71" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E71" s="38" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="53"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72" s="38"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="53"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="38"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="53"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E74" s="38"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="53"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="38"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="54"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="D76" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76" s="41"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="58"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="60"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="57" t="s">
+      <c r="D86" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="9"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="64"/>
+      <c r="B87" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B78" s="42" t="s">
-        <v>234</v>
-      </c>
-      <c r="C78" s="9" t="s">
+      <c r="D87" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="9"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="57"/>
-      <c r="B79" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C79" s="9" t="s">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="64"/>
+      <c r="B88" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="9"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="57"/>
-      <c r="B80" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C80" s="9" t="s">
+      <c r="D88" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D80" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="9"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="57"/>
-      <c r="B81" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C81" s="9" t="s">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="64"/>
+      <c r="B89" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="9"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="57"/>
-      <c r="B82" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C82" s="9" t="s">
+      <c r="D89" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D82" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="9"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="57"/>
-      <c r="B83" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C83" s="9" t="s">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="64"/>
+      <c r="B90" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="D83" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" s="9"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="57"/>
-      <c r="B84" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" s="9"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="57"/>
-      <c r="B85" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="9"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="57"/>
-      <c r="B86" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" s="9"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="57"/>
-      <c r="B87" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="57"/>
-      <c r="B88" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="57"/>
-      <c r="B89" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="57"/>
-      <c r="B90" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>218</v>
-      </c>
       <c r="D90" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -3235,122 +3796,122 @@
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="48" t="s">
+      <c r="A92" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="B92" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="58"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="58"/>
+      <c r="B94" s="70"/>
+      <c r="C94" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="58"/>
+      <c r="B95" s="70"/>
+      <c r="C95" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="58"/>
+      <c r="B96" s="70"/>
+      <c r="C96" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="58"/>
+      <c r="B97" s="70"/>
+      <c r="C97" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="58"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="58"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="58"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="58"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B92" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="48"/>
-      <c r="B93" s="55"/>
-      <c r="C93" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="48"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="48"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="48"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="48"/>
-      <c r="B97" s="55"/>
-      <c r="C97" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="48"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="48"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="48"/>
-      <c r="B100" s="55"/>
-      <c r="C100" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="4"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="48"/>
-      <c r="B101" s="55"/>
-      <c r="C101" s="9" t="s">
-        <v>229</v>
-      </c>
       <c r="D101" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="48"/>
-      <c r="B102" s="55"/>
+      <c r="A102" s="58"/>
+      <c r="B102" s="70"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
       <c r="E102" s="4"/>
@@ -3363,149 +3924,137 @@
       <c r="E103" s="45"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="48" t="s">
+      <c r="A104" s="58" t="s">
+        <v>221</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="58"/>
+      <c r="B105" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="66"/>
+      <c r="B106" s="67"/>
+      <c r="C106" s="67"/>
+      <c r="D106" s="67"/>
+      <c r="E106" s="68"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="B107" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="58"/>
+      <c r="B108" s="69"/>
+      <c r="C108" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="58"/>
+      <c r="B109" s="69"/>
+      <c r="C109" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="D109" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="58"/>
+      <c r="B110" s="69"/>
+      <c r="C110" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="58"/>
+      <c r="B111" s="69"/>
+      <c r="C111" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C104" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" s="4"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="48"/>
-      <c r="B105" s="9" t="s">
+      <c r="D111" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C105" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="D105" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="4"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="49"/>
-      <c r="B106" s="50"/>
-      <c r="C106" s="50"/>
-      <c r="D106" s="50"/>
-      <c r="E106" s="51"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="B107" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="48"/>
-      <c r="B108" s="52"/>
-      <c r="C108" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="48"/>
-      <c r="B109" s="52"/>
-      <c r="C109" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="48"/>
-      <c r="B110" s="52"/>
-      <c r="C110" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="48"/>
-      <c r="B111" s="52"/>
-      <c r="C111" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>246</v>
-      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="48"/>
-      <c r="B112" s="52"/>
+      <c r="A112" s="58"/>
+      <c r="B112" s="69"/>
       <c r="C112" s="36">
         <v>1</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="48"/>
-      <c r="B113" s="52"/>
+      <c r="A113" s="58"/>
+      <c r="B113" s="69"/>
       <c r="C113" s="9" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A42:A47"/>
-    <mergeCell ref="B42:B47"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="A106:E106"/>
     <mergeCell ref="A107:A113"/>
@@ -3516,11 +4065,24 @@
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A92:A102"/>
     <mergeCell ref="B92:B102"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="B42:B47"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1" display="http://corinaradu.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3536,16 +4098,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
